--- a/static/labs/ModAvanI/spreadsheets/data-helper.xlsx
+++ b/static/labs/ModAvanI/spreadsheets/data-helper.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moroncog\Documents\GitHub\myWebsite\static\labs\ModAvanI\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moroncog\Documents\Mod_Avanzados_Evaluacion\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E86F29-DDB6-4383-8877-3616813EBDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61188788-425F-4E5B-A6CC-E3EE5261B3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4077,13 +4077,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFB264"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J209" sqref="J209"/>
+    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="A181" sqref="A181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6269,7 +6270,7 @@
         <v>1</v>
       </c>
       <c r="C75" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" s="10">
         <v>339689</v>
@@ -6303,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="C76" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" s="10">
         <v>193353</v>
@@ -6337,7 +6338,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" s="10">
         <v>151984</v>
@@ -6371,7 +6372,7 @@
         <v>1</v>
       </c>
       <c r="C78" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" s="10">
         <v>55221.8</v>
@@ -6405,7 +6406,7 @@
         <v>1</v>
       </c>
       <c r="C79" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" s="10">
         <v>59232.3</v>
@@ -6439,7 +6440,7 @@
         <v>1</v>
       </c>
       <c r="C80" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" s="10">
         <v>31137.5</v>
@@ -6473,7 +6474,7 @@
         <v>1</v>
       </c>
       <c r="C81" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" s="10">
         <v>35845.4</v>
@@ -6507,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="C82" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" s="10">
         <v>27492.6</v>
@@ -6541,7 +6542,7 @@
         <v>1</v>
       </c>
       <c r="C83" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" s="10">
         <v>37338.300000000003</v>
@@ -6575,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="C84" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D84" s="14">
         <v>5.1933299999999996</v>
@@ -6609,7 +6610,7 @@
         <v>1</v>
       </c>
       <c r="C85" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" s="14">
         <v>1.1783999999999999</v>
@@ -6643,7 +6644,7 @@
         <v>1</v>
       </c>
       <c r="C86" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D86" s="14">
         <v>5.9438300000000002</v>
@@ -6677,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" s="14">
         <v>0.77010599999999996</v>
@@ -6711,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="C88" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" s="14">
         <v>16.318000000000001</v>
@@ -6745,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="C89" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" s="14">
         <v>1.3633900000000001</v>
@@ -6779,7 +6780,7 @@
         <v>1</v>
       </c>
       <c r="C90" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" s="14">
         <v>4.7648200000000003</v>
@@ -6813,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="C91" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" s="14">
         <v>51.070700000000002</v>
@@ -6847,7 +6848,7 @@
         <v>1</v>
       </c>
       <c r="C92" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" s="14">
         <v>1.3609500000000001</v>
@@ -6881,7 +6882,7 @@
         <v>1</v>
       </c>
       <c r="C93" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D93" s="14">
         <v>0.86253100000000005</v>
@@ -6915,7 +6916,7 @@
         <v>1</v>
       </c>
       <c r="C94" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" s="14">
         <v>5.9712500000000004</v>
@@ -6949,7 +6950,7 @@
         <v>1</v>
       </c>
       <c r="C95" s="7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" s="14">
         <v>1.6937899999999999</v>

--- a/static/labs/ModAvanI/spreadsheets/data-helper.xlsx
+++ b/static/labs/ModAvanI/spreadsheets/data-helper.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moroncog\Documents\Mod_Avanzados_Evaluacion\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moroncog\Documents\GitHub\myWebsite\static\labs\ModAvanI\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61188788-425F-4E5B-A6CC-E3EE5261B3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCEC81D-FE3A-4101-8747-6DFA6F419412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4077,8 +4077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:XFB264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="A181" sqref="A181"/>
+    <sheetView tabSelected="1" topLeftCell="A173" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4621,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E21" s="7">
         <v>0</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
